--- a/election_predictor/elections.xlsx
+++ b/election_predictor/elections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15440" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8000" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="21">
-  <si>
-    <t>State</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="55">
   <si>
     <t>Alabama</t>
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Vote</t>
   </si>
   <si>
     <t>1 is dem, 0 is rep</t>
@@ -84,6 +78,114 @@
   </si>
   <si>
     <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Wisconson</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
   </si>
 </sst>
 </file>
@@ -139,8 +241,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -194,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -219,6 +341,16 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -243,6 +375,16 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E498" sqref="E498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -584,31 +726,32 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
+      <c r="B1">
+        <v>1976</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1976</v>
+        <f>B1+4</f>
+        <v>1980</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <f>B2+4</f>
-        <v>1980</v>
+        <f t="shared" ref="B3:B10" si="0">B2+4</f>
+        <v>1984</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -616,11 +759,11 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B11" si="0">B3+4</f>
-        <v>1984</v>
+        <f t="shared" si="0"/>
+        <v>1988</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -628,11 +771,11 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -640,11 +783,11 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -652,11 +795,11 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -664,11 +807,11 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>2000</v>
+        <f>B7+4</f>
+        <v>2004</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -676,11 +819,11 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <f>B8+4</f>
-        <v>2004</v>
+        <f t="shared" si="0"/>
+        <v>2008</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -688,11 +831,11 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -700,11 +843,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>2012</v>
+        <v>1976</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -712,10 +854,11 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>1976</v>
+        <f>B11+4</f>
+        <v>1980</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -723,11 +866,11 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <f>B12+4</f>
-        <v>1980</v>
+        <f t="shared" ref="B13:B20" si="1">B12+4</f>
+        <v>1984</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -735,11 +878,11 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:B21" si="1">B13+4</f>
-        <v>1984</v>
+        <f t="shared" si="1"/>
+        <v>1988</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -747,11 +890,11 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -759,11 +902,11 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -771,11 +914,11 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -783,11 +926,11 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <f>B17+4</f>
+        <v>2004</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -795,11 +938,11 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <f>B18+4</f>
-        <v>2004</v>
+        <f t="shared" si="1"/>
+        <v>2008</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -807,11 +950,11 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -819,11 +962,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
-        <v>2012</v>
+        <v>1976</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -831,10 +973,11 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>1976</v>
+        <f>B21+4</f>
+        <v>1980</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -842,11 +985,11 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23">
-        <f>B22+4</f>
-        <v>1980</v>
+        <f t="shared" ref="B23:B30" si="2">B22+4</f>
+        <v>1984</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -854,11 +997,11 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:B31" si="2">B23+4</f>
-        <v>1984</v>
+        <f t="shared" si="2"/>
+        <v>1988</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -866,11 +1009,11 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <f t="shared" si="2"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -878,35 +1021,35 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <f t="shared" si="2"/>
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <f t="shared" si="2"/>
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
-        <v>2000</v>
+        <f>B27+4</f>
+        <v>2004</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -914,11 +1057,11 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <f>B28+4</f>
-        <v>2004</v>
+        <f t="shared" si="2"/>
+        <v>2008</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -926,11 +1069,11 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <f t="shared" si="2"/>
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -938,34 +1081,34 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
-        <v>2012</v>
+        <v>1976</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>1976</v>
+        <f>B31+4</f>
+        <v>1980</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <f>B32+4</f>
-        <v>1980</v>
+        <f t="shared" ref="B33:B40" si="3">B32+4</f>
+        <v>1984</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -973,11 +1116,11 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B41" si="3">B33+4</f>
-        <v>1984</v>
+        <f t="shared" si="3"/>
+        <v>1988</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -985,23 +1128,23 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <f t="shared" si="3"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <f t="shared" si="3"/>
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1009,23 +1152,23 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <f t="shared" si="3"/>
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <f t="shared" si="3"/>
-        <v>2000</v>
+        <f>B37+4</f>
+        <v>2004</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1033,11 +1176,11 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <f>B38+4</f>
-        <v>2004</v>
+        <f t="shared" si="3"/>
+        <v>2008</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1045,11 +1188,11 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B40">
         <f t="shared" si="3"/>
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1057,11 +1200,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41">
-        <f t="shared" si="3"/>
-        <v>2012</v>
+        <v>1976</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1069,10 +1211,11 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>1976</v>
+        <f>B41+4</f>
+        <v>1980</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1080,11 +1223,11 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43">
-        <f>B42+4</f>
-        <v>1980</v>
+        <f t="shared" ref="B43:B50" si="4">B42+4</f>
+        <v>1984</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1092,11 +1235,11 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44">
-        <f t="shared" ref="B44:B51" si="4">B43+4</f>
-        <v>1984</v>
+        <f t="shared" si="4"/>
+        <v>1988</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1104,23 +1247,23 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <f t="shared" si="4"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46">
         <f t="shared" si="4"/>
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1128,11 +1271,11 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47">
         <f t="shared" si="4"/>
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1140,11 +1283,11 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48">
-        <f t="shared" si="4"/>
-        <v>2000</v>
+        <f>B47+4</f>
+        <v>2004</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1152,11 +1295,11 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49">
-        <f>B48+4</f>
-        <v>2004</v>
+        <f t="shared" si="4"/>
+        <v>2008</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1164,11 +1307,11 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50">
         <f t="shared" si="4"/>
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1176,22 +1319,22 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51">
-        <f t="shared" si="4"/>
-        <v>2012</v>
+        <v>1976</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B52">
-        <v>1976</v>
+        <f>B51+4</f>
+        <v>1980</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1199,11 +1342,11 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B53">
-        <f>B52+4</f>
-        <v>1980</v>
+        <f t="shared" ref="B53:B60" si="5">B52+4</f>
+        <v>1984</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1211,11 +1354,11 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54:B61" si="5">B53+4</f>
-        <v>1984</v>
+        <f t="shared" si="5"/>
+        <v>1988</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1223,35 +1366,35 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B55">
         <f t="shared" si="5"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B56">
         <f t="shared" si="5"/>
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B57">
         <f t="shared" si="5"/>
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1259,11 +1402,11 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B58">
-        <f t="shared" si="5"/>
-        <v>2000</v>
+        <f>B57+4</f>
+        <v>2004</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1271,23 +1414,23 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B59">
-        <f>B58+4</f>
-        <v>2004</v>
+        <f t="shared" si="5"/>
+        <v>2008</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B60">
         <f t="shared" si="5"/>
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1295,22 +1438,22 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61">
-        <f t="shared" si="5"/>
-        <v>2012</v>
+        <v>1976</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>1976</v>
+        <f>B61+4</f>
+        <v>1980</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1318,11 +1461,11 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <f>B62+4</f>
-        <v>1980</v>
+        <f t="shared" ref="B63:B70" si="6">B62+4</f>
+        <v>1984</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1330,11 +1473,11 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64:B71" si="6">B63+4</f>
-        <v>1984</v>
+        <f t="shared" si="6"/>
+        <v>1988</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1342,23 +1485,23 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B65">
         <f t="shared" si="6"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B66">
         <f t="shared" si="6"/>
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1366,11 +1509,11 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B67">
         <f t="shared" si="6"/>
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1378,11 +1521,11 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B68">
-        <f t="shared" si="6"/>
-        <v>2000</v>
+        <f>B67+4</f>
+        <v>2004</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1390,11 +1533,11 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <f>B68+4</f>
-        <v>2004</v>
+        <f t="shared" si="6"/>
+        <v>2008</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1402,11 +1545,11 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B70">
         <f t="shared" si="6"/>
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1414,11 +1557,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71">
-        <f t="shared" si="6"/>
-        <v>2012</v>
+        <v>1976</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1426,22 +1568,23 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B72">
-        <v>1976</v>
+        <f>B71+4</f>
+        <v>1980</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B73">
-        <f>B72+4</f>
-        <v>1980</v>
+        <f t="shared" ref="B73:B80" si="7">B72+4</f>
+        <v>1984</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1449,11 +1592,11 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:B81" si="7">B73+4</f>
-        <v>1984</v>
+        <f t="shared" si="7"/>
+        <v>1988</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1461,23 +1604,23 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B75">
         <f t="shared" si="7"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B76">
         <f t="shared" si="7"/>
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1485,11 +1628,11 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B77">
         <f t="shared" si="7"/>
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1497,11 +1640,11 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B78">
-        <f t="shared" si="7"/>
-        <v>2000</v>
+        <f>B77+4</f>
+        <v>2004</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1509,11 +1652,11 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B79">
-        <f>B78+4</f>
-        <v>2004</v>
+        <f t="shared" si="7"/>
+        <v>2008</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1521,11 +1664,11 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B80">
         <f t="shared" si="7"/>
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1533,11 +1676,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B81">
-        <f t="shared" si="7"/>
-        <v>2012</v>
+        <v>1976</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1545,22 +1687,23 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B82">
-        <v>1976</v>
+        <f>B81+4</f>
+        <v>1980</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B83">
-        <f>B82+4</f>
-        <v>1980</v>
+        <f t="shared" ref="B83:B90" si="8">B82+4</f>
+        <v>1984</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1568,11 +1711,11 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B84">
-        <f t="shared" ref="B84:B91" si="8">B83+4</f>
-        <v>1984</v>
+        <f t="shared" si="8"/>
+        <v>1988</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1580,11 +1723,11 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B85">
         <f t="shared" si="8"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1592,35 +1735,35 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B86">
         <f t="shared" si="8"/>
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B87">
         <f t="shared" si="8"/>
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B88">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f>B87+4</f>
+        <v>2004</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1628,23 +1771,23 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B89">
-        <f>B88+4</f>
-        <v>2004</v>
+        <f t="shared" si="8"/>
+        <v>2008</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B90">
         <f t="shared" si="8"/>
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1652,11 +1795,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91">
-        <f t="shared" si="8"/>
-        <v>2012</v>
+        <v>1976</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1664,10 +1806,11 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B92">
-        <v>1976</v>
+        <f>B91+4</f>
+        <v>1980</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1675,23 +1818,23 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B93">
-        <f>B92+4</f>
-        <v>1980</v>
+        <f t="shared" ref="B93:B100" si="9">B92+4</f>
+        <v>1984</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B94">
-        <f t="shared" ref="B94:B101" si="9">B93+4</f>
-        <v>1984</v>
+        <f t="shared" si="9"/>
+        <v>1988</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1699,35 +1842,35 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B95">
         <f t="shared" si="9"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B96">
         <f t="shared" si="9"/>
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B97">
         <f t="shared" si="9"/>
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1735,11 +1878,11 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B98">
-        <f t="shared" si="9"/>
-        <v>2000</v>
+        <f>B97+4</f>
+        <v>2004</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1747,11 +1890,11 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B99">
-        <f>B98+4</f>
-        <v>2004</v>
+        <f t="shared" si="9"/>
+        <v>2008</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1759,11 +1902,11 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B100">
         <f t="shared" si="9"/>
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1771,22 +1914,22 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B101">
-        <f t="shared" si="9"/>
-        <v>2012</v>
+        <v>1976</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B102">
-        <v>1976</v>
+        <f>B101+4</f>
+        <v>1980</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1794,35 +1937,35 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B103">
-        <f>B102+4</f>
-        <v>1980</v>
+        <f t="shared" ref="B103:B110" si="10">B102+4</f>
+        <v>1984</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B104">
-        <f t="shared" ref="B104:B111" si="10">B103+4</f>
-        <v>1984</v>
+        <f t="shared" si="10"/>
+        <v>1988</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B105">
         <f t="shared" si="10"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -1830,11 +1973,11 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B106">
         <f t="shared" si="10"/>
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -1842,11 +1985,11 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B107">
         <f t="shared" si="10"/>
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -1854,11 +1997,11 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B108">
-        <f t="shared" si="10"/>
-        <v>2000</v>
+        <f>B107+4</f>
+        <v>2004</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -1866,11 +2009,11 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B109">
-        <f>B108+4</f>
-        <v>2004</v>
+        <f t="shared" si="10"/>
+        <v>2008</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -1878,11 +2021,11 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B110">
         <f t="shared" si="10"/>
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -1890,22 +2033,22 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B111">
-        <f t="shared" si="10"/>
-        <v>2012</v>
+        <v>1976</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B112">
-        <v>1976</v>
+        <f>B111+4</f>
+        <v>1980</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -1913,11 +2056,11 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B113">
-        <f>B112+4</f>
-        <v>1980</v>
+        <f t="shared" ref="B113:B120" si="11">B112+4</f>
+        <v>1984</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -1925,11 +2068,11 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B114">
-        <f t="shared" ref="B114:B121" si="11">B113+4</f>
-        <v>1984</v>
+        <f t="shared" si="11"/>
+        <v>1988</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -1937,11 +2080,11 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B115">
         <f t="shared" si="11"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -1949,11 +2092,11 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B116">
         <f t="shared" si="11"/>
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -1961,11 +2104,11 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B117">
         <f t="shared" si="11"/>
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -1973,11 +2116,11 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B118">
-        <f t="shared" si="11"/>
-        <v>2000</v>
+        <f>B117+4</f>
+        <v>2004</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -1985,11 +2128,11 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B119">
-        <f>B118+4</f>
-        <v>2004</v>
+        <f t="shared" si="11"/>
+        <v>2008</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -1997,11 +2140,11 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B120">
         <f t="shared" si="11"/>
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2012,8 +2155,7 @@
         <v>17</v>
       </c>
       <c r="B121">
-        <f t="shared" si="11"/>
-        <v>2012</v>
+        <v>1976</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2021,10 +2163,11 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B122">
-        <v>1976</v>
+        <f>B121+4</f>
+        <v>1980</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2032,11 +2175,11 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B123">
-        <f>B122+4</f>
-        <v>1980</v>
+        <f t="shared" ref="B123:B130" si="12">B122+4</f>
+        <v>1984</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2044,11 +2187,11 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B124">
-        <f t="shared" ref="B124:B131" si="12">B123+4</f>
-        <v>1984</v>
+        <f t="shared" si="12"/>
+        <v>1988</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2056,23 +2199,23 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B125">
         <f t="shared" si="12"/>
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B126">
         <f t="shared" si="12"/>
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -2080,11 +2223,11 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B127">
         <f t="shared" si="12"/>
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -2092,11 +2235,11 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B128">
-        <f t="shared" si="12"/>
-        <v>2000</v>
+        <f>B127+4</f>
+        <v>2004</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -2104,11 +2247,11 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B129">
-        <f>B128+4</f>
-        <v>2004</v>
+        <f t="shared" si="12"/>
+        <v>2008</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -2116,11 +2259,11 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B130">
         <f t="shared" si="12"/>
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -2128,22 +2271,21 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>19</v>
-      </c>
-      <c r="B131">
-        <f t="shared" si="12"/>
-        <v>2012</v>
+        <v>18</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1976</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B132" s="1">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2151,10 +2293,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B133" s="1">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2162,10 +2304,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B134" s="1">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2173,10 +2315,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B135" s="1">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2184,10 +2326,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B136" s="1">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2195,10 +2337,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B137" s="1">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2206,10 +2348,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B138" s="1">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2217,34 +2359,3983 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B139" s="1">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B140" s="1">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
         <v>20</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B151" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" s="1">
         <v>2012</v>
       </c>
-      <c r="C141">
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>22</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>22</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>22</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>22</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>22</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>22</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>22</v>
+      </c>
+      <c r="B178" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>22</v>
+      </c>
+      <c r="B180" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>23</v>
+      </c>
+      <c r="B181" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>24</v>
+      </c>
+      <c r="B191" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>24</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>24</v>
+      </c>
+      <c r="B194" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>24</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>24</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>24</v>
+      </c>
+      <c r="B197" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>24</v>
+      </c>
+      <c r="B198" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>24</v>
+      </c>
+      <c r="B199" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>24</v>
+      </c>
+      <c r="B200" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>25</v>
+      </c>
+      <c r="B201" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>25</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>25</v>
+      </c>
+      <c r="B203" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>25</v>
+      </c>
+      <c r="B204" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>25</v>
+      </c>
+      <c r="B205" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>25</v>
+      </c>
+      <c r="B206" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>25</v>
+      </c>
+      <c r="B207" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>25</v>
+      </c>
+      <c r="B208" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>25</v>
+      </c>
+      <c r="B209" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>25</v>
+      </c>
+      <c r="B210" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>26</v>
+      </c>
+      <c r="B211" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>26</v>
+      </c>
+      <c r="B212" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>26</v>
+      </c>
+      <c r="B213" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>26</v>
+      </c>
+      <c r="B214" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>26</v>
+      </c>
+      <c r="B215" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>26</v>
+      </c>
+      <c r="B216" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>26</v>
+      </c>
+      <c r="B217" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>26</v>
+      </c>
+      <c r="B218" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>26</v>
+      </c>
+      <c r="B219" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>26</v>
+      </c>
+      <c r="B220" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>27</v>
+      </c>
+      <c r="B221" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>27</v>
+      </c>
+      <c r="B222" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>27</v>
+      </c>
+      <c r="B223" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>27</v>
+      </c>
+      <c r="B224" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>27</v>
+      </c>
+      <c r="B225" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>27</v>
+      </c>
+      <c r="B226" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>27</v>
+      </c>
+      <c r="B227" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>27</v>
+      </c>
+      <c r="B228" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>27</v>
+      </c>
+      <c r="B229" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>27</v>
+      </c>
+      <c r="B230" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>28</v>
+      </c>
+      <c r="B231" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>28</v>
+      </c>
+      <c r="B232" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>28</v>
+      </c>
+      <c r="B233" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>28</v>
+      </c>
+      <c r="B234" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>28</v>
+      </c>
+      <c r="B235" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>28</v>
+      </c>
+      <c r="B236" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>28</v>
+      </c>
+      <c r="B237" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>28</v>
+      </c>
+      <c r="B238" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>28</v>
+      </c>
+      <c r="B239" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B240" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>29</v>
+      </c>
+      <c r="B241" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>29</v>
+      </c>
+      <c r="B242" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>29</v>
+      </c>
+      <c r="B243" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>29</v>
+      </c>
+      <c r="B244" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>29</v>
+      </c>
+      <c r="B245" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>29</v>
+      </c>
+      <c r="B246" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>29</v>
+      </c>
+      <c r="B247" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>29</v>
+      </c>
+      <c r="B248" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>29</v>
+      </c>
+      <c r="B249" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>29</v>
+      </c>
+      <c r="B250" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>30</v>
+      </c>
+      <c r="B251" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>30</v>
+      </c>
+      <c r="B252" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>30</v>
+      </c>
+      <c r="B253" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>30</v>
+      </c>
+      <c r="B254" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>30</v>
+      </c>
+      <c r="B255" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>30</v>
+      </c>
+      <c r="B256" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>30</v>
+      </c>
+      <c r="B257" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>30</v>
+      </c>
+      <c r="B258" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>30</v>
+      </c>
+      <c r="B259" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>30</v>
+      </c>
+      <c r="B260" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>31</v>
+      </c>
+      <c r="B261" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>31</v>
+      </c>
+      <c r="B262" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>31</v>
+      </c>
+      <c r="B263" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>31</v>
+      </c>
+      <c r="B264" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>31</v>
+      </c>
+      <c r="B265" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>31</v>
+      </c>
+      <c r="B266" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>31</v>
+      </c>
+      <c r="B267" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>31</v>
+      </c>
+      <c r="B268" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>31</v>
+      </c>
+      <c r="B269" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>31</v>
+      </c>
+      <c r="B270" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>32</v>
+      </c>
+      <c r="B271" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>32</v>
+      </c>
+      <c r="B272" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>32</v>
+      </c>
+      <c r="B273" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>32</v>
+      </c>
+      <c r="B274" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>32</v>
+      </c>
+      <c r="B275" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>32</v>
+      </c>
+      <c r="B276" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>32</v>
+      </c>
+      <c r="B277" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>32</v>
+      </c>
+      <c r="B278" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>32</v>
+      </c>
+      <c r="B279" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>32</v>
+      </c>
+      <c r="B280" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>33</v>
+      </c>
+      <c r="B281" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>33</v>
+      </c>
+      <c r="B282" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>33</v>
+      </c>
+      <c r="B283" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>33</v>
+      </c>
+      <c r="B284" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>33</v>
+      </c>
+      <c r="B285" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>33</v>
+      </c>
+      <c r="B286" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>33</v>
+      </c>
+      <c r="B287" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>33</v>
+      </c>
+      <c r="B288" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>33</v>
+      </c>
+      <c r="B289" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>33</v>
+      </c>
+      <c r="B290" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>34</v>
+      </c>
+      <c r="B291" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>34</v>
+      </c>
+      <c r="B292" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>34</v>
+      </c>
+      <c r="B293" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>34</v>
+      </c>
+      <c r="B294" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>34</v>
+      </c>
+      <c r="B295" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>34</v>
+      </c>
+      <c r="B296" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>34</v>
+      </c>
+      <c r="B297" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>34</v>
+      </c>
+      <c r="B298" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>34</v>
+      </c>
+      <c r="B299" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>34</v>
+      </c>
+      <c r="B300" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>35</v>
+      </c>
+      <c r="B301" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>35</v>
+      </c>
+      <c r="B302" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>35</v>
+      </c>
+      <c r="B303" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>35</v>
+      </c>
+      <c r="B304" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>35</v>
+      </c>
+      <c r="B305" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>35</v>
+      </c>
+      <c r="B306" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>35</v>
+      </c>
+      <c r="B307" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>35</v>
+      </c>
+      <c r="B308" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>35</v>
+      </c>
+      <c r="B309" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>35</v>
+      </c>
+      <c r="B310" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>36</v>
+      </c>
+      <c r="B311" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>36</v>
+      </c>
+      <c r="B312" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>36</v>
+      </c>
+      <c r="B313" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>36</v>
+      </c>
+      <c r="B314" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>36</v>
+      </c>
+      <c r="B315" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>36</v>
+      </c>
+      <c r="B316" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>36</v>
+      </c>
+      <c r="B317" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>36</v>
+      </c>
+      <c r="B318" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>36</v>
+      </c>
+      <c r="B319" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>36</v>
+      </c>
+      <c r="B320" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>37</v>
+      </c>
+      <c r="B321" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>37</v>
+      </c>
+      <c r="B322" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>37</v>
+      </c>
+      <c r="B323" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>37</v>
+      </c>
+      <c r="B324" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>37</v>
+      </c>
+      <c r="B325" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>37</v>
+      </c>
+      <c r="B326" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>37</v>
+      </c>
+      <c r="B327" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>37</v>
+      </c>
+      <c r="B328" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>37</v>
+      </c>
+      <c r="B329" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>37</v>
+      </c>
+      <c r="B330" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>38</v>
+      </c>
+      <c r="B331" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>38</v>
+      </c>
+      <c r="B332" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>38</v>
+      </c>
+      <c r="B333" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>38</v>
+      </c>
+      <c r="B334" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>38</v>
+      </c>
+      <c r="B335" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>38</v>
+      </c>
+      <c r="B336" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>38</v>
+      </c>
+      <c r="B337" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>38</v>
+      </c>
+      <c r="B338" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>38</v>
+      </c>
+      <c r="B339" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>38</v>
+      </c>
+      <c r="B340" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>39</v>
+      </c>
+      <c r="B341" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>39</v>
+      </c>
+      <c r="B342" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>39</v>
+      </c>
+      <c r="B343" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>39</v>
+      </c>
+      <c r="B344" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>39</v>
+      </c>
+      <c r="B345" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>39</v>
+      </c>
+      <c r="B346" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>39</v>
+      </c>
+      <c r="B347" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>39</v>
+      </c>
+      <c r="B348" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>39</v>
+      </c>
+      <c r="B349" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>39</v>
+      </c>
+      <c r="B350" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>40</v>
+      </c>
+      <c r="B351" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>40</v>
+      </c>
+      <c r="B352" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>40</v>
+      </c>
+      <c r="B353" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>40</v>
+      </c>
+      <c r="B354" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>40</v>
+      </c>
+      <c r="B355" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>40</v>
+      </c>
+      <c r="B356" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>40</v>
+      </c>
+      <c r="B357" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>40</v>
+      </c>
+      <c r="B358" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>40</v>
+      </c>
+      <c r="B359" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>40</v>
+      </c>
+      <c r="B360" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>41</v>
+      </c>
+      <c r="B361" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>41</v>
+      </c>
+      <c r="B362" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>41</v>
+      </c>
+      <c r="B363" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>41</v>
+      </c>
+      <c r="B364" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>41</v>
+      </c>
+      <c r="B365" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>41</v>
+      </c>
+      <c r="B366" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>41</v>
+      </c>
+      <c r="B367" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>41</v>
+      </c>
+      <c r="B368" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>41</v>
+      </c>
+      <c r="B369" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>41</v>
+      </c>
+      <c r="B370" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>42</v>
+      </c>
+      <c r="B371" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>42</v>
+      </c>
+      <c r="B372" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>42</v>
+      </c>
+      <c r="B373" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>42</v>
+      </c>
+      <c r="B374" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>42</v>
+      </c>
+      <c r="B375" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>42</v>
+      </c>
+      <c r="B376" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>42</v>
+      </c>
+      <c r="B377" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>42</v>
+      </c>
+      <c r="B378" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>42</v>
+      </c>
+      <c r="B379" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>42</v>
+      </c>
+      <c r="B380" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>43</v>
+      </c>
+      <c r="B381" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>43</v>
+      </c>
+      <c r="B382" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>43</v>
+      </c>
+      <c r="B383" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>43</v>
+      </c>
+      <c r="B384" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>43</v>
+      </c>
+      <c r="B385" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>43</v>
+      </c>
+      <c r="B386" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>43</v>
+      </c>
+      <c r="B387" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>43</v>
+      </c>
+      <c r="B388" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>43</v>
+      </c>
+      <c r="B389" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>43</v>
+      </c>
+      <c r="B390" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>44</v>
+      </c>
+      <c r="B391" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>44</v>
+      </c>
+      <c r="B392" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>44</v>
+      </c>
+      <c r="B393" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>44</v>
+      </c>
+      <c r="B394" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>44</v>
+      </c>
+      <c r="B395" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>44</v>
+      </c>
+      <c r="B396" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>44</v>
+      </c>
+      <c r="B397" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>44</v>
+      </c>
+      <c r="B398" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>44</v>
+      </c>
+      <c r="B399" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>44</v>
+      </c>
+      <c r="B400" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>45</v>
+      </c>
+      <c r="B401" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>45</v>
+      </c>
+      <c r="B402" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>45</v>
+      </c>
+      <c r="B403" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>45</v>
+      </c>
+      <c r="B404" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>45</v>
+      </c>
+      <c r="B405" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>45</v>
+      </c>
+      <c r="B406" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>45</v>
+      </c>
+      <c r="B407" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>45</v>
+      </c>
+      <c r="B408" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
+        <v>45</v>
+      </c>
+      <c r="B409" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>45</v>
+      </c>
+      <c r="B410" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
+        <v>46</v>
+      </c>
+      <c r="B411" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
+        <v>46</v>
+      </c>
+      <c r="B412" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
+        <v>46</v>
+      </c>
+      <c r="B413" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
+        <v>46</v>
+      </c>
+      <c r="B414" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
+        <v>46</v>
+      </c>
+      <c r="B415" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
+        <v>46</v>
+      </c>
+      <c r="B416" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>46</v>
+      </c>
+      <c r="B417" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>46</v>
+      </c>
+      <c r="B418" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>46</v>
+      </c>
+      <c r="B419" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
+        <v>46</v>
+      </c>
+      <c r="B420" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
+        <v>47</v>
+      </c>
+      <c r="B421" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
+        <v>47</v>
+      </c>
+      <c r="B422" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
+        <v>47</v>
+      </c>
+      <c r="B423" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
+        <v>47</v>
+      </c>
+      <c r="B424" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
+        <v>47</v>
+      </c>
+      <c r="B425" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
+        <v>47</v>
+      </c>
+      <c r="B426" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>47</v>
+      </c>
+      <c r="B427" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>47</v>
+      </c>
+      <c r="B428" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>47</v>
+      </c>
+      <c r="B429" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>47</v>
+      </c>
+      <c r="B430" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>48</v>
+      </c>
+      <c r="B431" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>48</v>
+      </c>
+      <c r="B432" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
+        <v>48</v>
+      </c>
+      <c r="B433" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
+        <v>48</v>
+      </c>
+      <c r="B434" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>48</v>
+      </c>
+      <c r="B435" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
+        <v>48</v>
+      </c>
+      <c r="B436" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
+        <v>48</v>
+      </c>
+      <c r="B437" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="s">
+        <v>48</v>
+      </c>
+      <c r="B438" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="s">
+        <v>48</v>
+      </c>
+      <c r="B439" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="s">
+        <v>48</v>
+      </c>
+      <c r="B440" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="s">
+        <v>49</v>
+      </c>
+      <c r="B441" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="s">
+        <v>49</v>
+      </c>
+      <c r="B442" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
+        <v>49</v>
+      </c>
+      <c r="B443" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
+        <v>49</v>
+      </c>
+      <c r="B444" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="s">
+        <v>49</v>
+      </c>
+      <c r="B445" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
+        <v>49</v>
+      </c>
+      <c r="B446" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="s">
+        <v>49</v>
+      </c>
+      <c r="B447" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
+        <v>49</v>
+      </c>
+      <c r="B448" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" t="s">
+        <v>49</v>
+      </c>
+      <c r="B449" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="s">
+        <v>49</v>
+      </c>
+      <c r="B450" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" t="s">
+        <v>50</v>
+      </c>
+      <c r="B451" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" t="s">
+        <v>50</v>
+      </c>
+      <c r="B452" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
+        <v>50</v>
+      </c>
+      <c r="B453" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="s">
+        <v>50</v>
+      </c>
+      <c r="B454" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="s">
+        <v>50</v>
+      </c>
+      <c r="B455" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
+        <v>50</v>
+      </c>
+      <c r="B456" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="s">
+        <v>50</v>
+      </c>
+      <c r="B457" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="s">
+        <v>50</v>
+      </c>
+      <c r="B458" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="s">
+        <v>50</v>
+      </c>
+      <c r="B459" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" t="s">
+        <v>50</v>
+      </c>
+      <c r="B460" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" t="s">
+        <v>51</v>
+      </c>
+      <c r="B461" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
+        <v>51</v>
+      </c>
+      <c r="B462" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
+        <v>51</v>
+      </c>
+      <c r="B463" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
+        <v>51</v>
+      </c>
+      <c r="B464" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
+        <v>51</v>
+      </c>
+      <c r="B465" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
+        <v>51</v>
+      </c>
+      <c r="B466" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
+        <v>51</v>
+      </c>
+      <c r="B467" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
+        <v>51</v>
+      </c>
+      <c r="B468" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
+        <v>51</v>
+      </c>
+      <c r="B469" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
+        <v>51</v>
+      </c>
+      <c r="B470" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="s">
+        <v>54</v>
+      </c>
+      <c r="B471" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="s">
+        <v>54</v>
+      </c>
+      <c r="B472" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="s">
+        <v>54</v>
+      </c>
+      <c r="B473" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="s">
+        <v>54</v>
+      </c>
+      <c r="B474" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
+        <v>54</v>
+      </c>
+      <c r="B475" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
+        <v>54</v>
+      </c>
+      <c r="B476" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
+        <v>54</v>
+      </c>
+      <c r="B477" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
+        <v>54</v>
+      </c>
+      <c r="B478" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
+        <v>54</v>
+      </c>
+      <c r="B479" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
+        <v>54</v>
+      </c>
+      <c r="B480" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
+        <v>52</v>
+      </c>
+      <c r="B481" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
+        <v>52</v>
+      </c>
+      <c r="B482" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
+        <v>52</v>
+      </c>
+      <c r="B483" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="s">
+        <v>52</v>
+      </c>
+      <c r="B484" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="s">
+        <v>52</v>
+      </c>
+      <c r="B485" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="s">
+        <v>52</v>
+      </c>
+      <c r="B486" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="s">
+        <v>52</v>
+      </c>
+      <c r="B487" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="s">
+        <v>52</v>
+      </c>
+      <c r="B488" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="s">
+        <v>52</v>
+      </c>
+      <c r="B489" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="s">
+        <v>52</v>
+      </c>
+      <c r="B490" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="s">
+        <v>53</v>
+      </c>
+      <c r="B491" s="1">
+        <v>1976</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="s">
+        <v>53</v>
+      </c>
+      <c r="B492" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="s">
+        <v>53</v>
+      </c>
+      <c r="B493" s="1">
+        <v>1984</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="s">
+        <v>53</v>
+      </c>
+      <c r="B494" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="s">
+        <v>53</v>
+      </c>
+      <c r="B495" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="s">
+        <v>53</v>
+      </c>
+      <c r="B496" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
+        <v>53</v>
+      </c>
+      <c r="B497" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
+        <v>53</v>
+      </c>
+      <c r="B498" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
+        <v>53</v>
+      </c>
+      <c r="B499" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
+        <v>53</v>
+      </c>
+      <c r="B500" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C500">
         <v>0</v>
       </c>
     </row>
@@ -2271,13 +6362,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2293,127 +6384,127 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <f>A2+4</f>
+        <f t="shared" ref="A3:A11" si="0">A2+4</f>
         <v>1980</v>
       </c>
       <c r="B3">
-        <f>B2+4</f>
+        <f t="shared" ref="B3:B11" si="1">B2+4</f>
         <v>1976</v>
       </c>
       <c r="C3">
-        <f>C2+4</f>
+        <f t="shared" ref="C3:C11" si="2">C2+4</f>
         <v>1979</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <f>A3+4</f>
+        <f t="shared" si="0"/>
         <v>1984</v>
       </c>
       <c r="B4">
-        <f>B3+4</f>
+        <f t="shared" si="1"/>
         <v>1980</v>
       </c>
       <c r="C4">
-        <f>C3+4</f>
+        <f t="shared" si="2"/>
         <v>1983</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <f>A4+4</f>
+        <f t="shared" si="0"/>
         <v>1988</v>
       </c>
       <c r="B5">
-        <f>B4+4</f>
+        <f t="shared" si="1"/>
         <v>1984</v>
       </c>
       <c r="C5">
-        <f>C4+4</f>
+        <f t="shared" si="2"/>
         <v>1987</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <f>A5+4</f>
+        <f t="shared" si="0"/>
         <v>1992</v>
       </c>
       <c r="B6">
-        <f>B5+4</f>
+        <f t="shared" si="1"/>
         <v>1988</v>
       </c>
       <c r="C6">
-        <f>C5+4</f>
+        <f t="shared" si="2"/>
         <v>1991</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <f>A6+4</f>
+        <f t="shared" si="0"/>
         <v>1996</v>
       </c>
       <c r="B7">
-        <f>B6+4</f>
+        <f t="shared" si="1"/>
         <v>1992</v>
       </c>
       <c r="C7">
-        <f>C6+4</f>
+        <f t="shared" si="2"/>
         <v>1995</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <f>A7+4</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="B8">
-        <f>B7+4</f>
+        <f t="shared" si="1"/>
         <v>1996</v>
       </c>
       <c r="C8">
-        <f>C7+4</f>
+        <f t="shared" si="2"/>
         <v>1999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <f>A8+4</f>
+        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="B9">
-        <f>B8+4</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="C9">
-        <f>C8+4</f>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <f>A9+4</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
       <c r="B10">
-        <f>B9+4</f>
+        <f t="shared" si="1"/>
         <v>2004</v>
       </c>
       <c r="C10">
-        <f>C9+4</f>
+        <f t="shared" si="2"/>
         <v>2007</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <f>A10+4</f>
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
       <c r="B11">
-        <f>B10+4</f>
+        <f t="shared" si="1"/>
         <v>2008</v>
       </c>
       <c r="C11">
-        <f>C10+4</f>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
     </row>
@@ -2439,12 +6530,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/election_predictor/elections.xlsx
+++ b/election_predictor/elections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8000" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -714,15 +714,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C500"/>
+  <dimension ref="A1:D500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E498" sqref="E498"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -732,8 +732,11 @@
       <c r="C1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -744,8 +747,12 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <f>C1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -756,8 +763,12 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="1">C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -768,8 +779,12 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -780,8 +795,12 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -792,8 +811,12 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -804,8 +827,12 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -816,8 +843,12 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -828,8 +859,12 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -840,8 +875,12 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -851,8 +890,12 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -863,68 +906,92 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B20" si="1">B12+4</f>
+        <f t="shared" ref="B13:B20" si="2">B12+4</f>
         <v>1984</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14">
+        <f t="shared" si="2"/>
+        <v>1988</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="1"/>
-        <v>1988</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15">
+        <f t="shared" si="2"/>
+        <v>1992</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="1"/>
-        <v>1992</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16">
+        <f t="shared" si="2"/>
+        <v>1996</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="1"/>
-        <v>1996</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -935,32 +1002,44 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19">
+        <f t="shared" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="1"/>
-        <v>2008</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20">
+        <f t="shared" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="1"/>
-        <v>2012</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -970,8 +1049,12 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -982,68 +1065,92 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B30" si="2">B22+4</f>
+        <f t="shared" ref="B23:B30" si="3">B22+4</f>
         <v>1984</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1988</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1992</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1996</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1054,32 +1161,44 @@
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2008</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>6</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2012</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1089,8 +1208,12 @@
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1101,68 +1224,92 @@
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B40" si="3">B32+4</f>
+        <f t="shared" ref="B33:B40" si="4">B32+4</f>
         <v>1984</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1988</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1992</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1996</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>7</v>
       </c>
       <c r="B37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1173,32 +1320,44 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2008</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2012</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1208,8 +1367,12 @@
       <c r="C41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1220,68 +1383,92 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43:B50" si="4">B42+4</f>
+        <f t="shared" ref="B43:B50" si="5">B42+4</f>
         <v>1984</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1988</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1992</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>8</v>
       </c>
       <c r="B46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1996</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>8</v>
       </c>
       <c r="B47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1292,32 +1479,44 @@
       <c r="C48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>8</v>
       </c>
       <c r="B49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2008</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>8</v>
       </c>
       <c r="B50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2012</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1327,8 +1526,12 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1339,68 +1542,92 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>9</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53:B60" si="5">B52+4</f>
+        <f t="shared" ref="B53:B60" si="6">B52+4</f>
         <v>1984</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>9</v>
       </c>
       <c r="B54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1988</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>9</v>
       </c>
       <c r="B55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1992</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>9</v>
       </c>
       <c r="B56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1996</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -1411,32 +1638,44 @@
       <c r="C58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>9</v>
       </c>
       <c r="B59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2008</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>9</v>
       </c>
       <c r="B60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2012</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -1446,8 +1685,12 @@
       <c r="C61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -1458,68 +1701,92 @@
       <c r="C62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>10</v>
       </c>
       <c r="B63">
-        <f t="shared" ref="B63:B70" si="6">B62+4</f>
+        <f t="shared" ref="B63:B70" si="7">B62+4</f>
         <v>1984</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>10</v>
       </c>
       <c r="B64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1988</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>10</v>
       </c>
       <c r="B65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1992</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>10</v>
       </c>
       <c r="B66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1996</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>10</v>
       </c>
       <c r="B67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="8">C66</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -1530,32 +1797,44 @@
       <c r="C68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>10</v>
       </c>
       <c r="B69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2008</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>10</v>
       </c>
       <c r="B70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2012</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -1565,8 +1844,12 @@
       <c r="C71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -1577,68 +1860,92 @@
       <c r="C72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>11</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:B80" si="7">B72+4</f>
+        <f t="shared" ref="B73:B80" si="9">B72+4</f>
         <v>1984</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>11</v>
       </c>
       <c r="B74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1988</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>11</v>
       </c>
       <c r="B75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1992</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>11</v>
       </c>
       <c r="B76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1996</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>11</v>
       </c>
       <c r="B77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2000</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -1649,32 +1956,44 @@
       <c r="C78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>11</v>
       </c>
       <c r="B79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2008</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>11</v>
       </c>
       <c r="B80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2012</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -1684,8 +2003,12 @@
       <c r="C81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -1696,68 +2019,92 @@
       <c r="C82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>12</v>
       </c>
       <c r="B83">
-        <f t="shared" ref="B83:B90" si="8">B82+4</f>
+        <f t="shared" ref="B83:B90" si="10">B82+4</f>
         <v>1984</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>12</v>
       </c>
       <c r="B84">
+        <f t="shared" si="10"/>
+        <v>1988</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
         <f t="shared" si="8"/>
-        <v>1988</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>12</v>
       </c>
       <c r="B85">
+        <f t="shared" si="10"/>
+        <v>1992</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
         <f t="shared" si="8"/>
-        <v>1992</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>12</v>
       </c>
       <c r="B86">
+        <f t="shared" si="10"/>
+        <v>1996</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
         <f t="shared" si="8"/>
-        <v>1996</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>12</v>
       </c>
       <c r="B87">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
         <f t="shared" si="8"/>
-        <v>2000</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -1768,32 +2115,44 @@
       <c r="C88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>12</v>
       </c>
       <c r="B89">
+        <f t="shared" si="10"/>
+        <v>2008</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
         <f t="shared" si="8"/>
-        <v>2008</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>12</v>
       </c>
       <c r="B90">
+        <f t="shared" si="10"/>
+        <v>2012</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
         <f t="shared" si="8"/>
-        <v>2012</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -1803,8 +2162,12 @@
       <c r="C91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -1815,68 +2178,92 @@
       <c r="C92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>13</v>
       </c>
       <c r="B93">
-        <f t="shared" ref="B93:B100" si="9">B92+4</f>
+        <f t="shared" ref="B93:B100" si="11">B92+4</f>
         <v>1984</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>13</v>
       </c>
       <c r="B94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1988</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>13</v>
       </c>
       <c r="B95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1992</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>13</v>
       </c>
       <c r="B96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1996</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>13</v>
       </c>
       <c r="B97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2000</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -1887,32 +2274,44 @@
       <c r="C98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>13</v>
       </c>
       <c r="B99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2008</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>13</v>
       </c>
       <c r="B100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2012</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -1922,8 +2321,12 @@
       <c r="C101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -1934,68 +2337,92 @@
       <c r="C102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>14</v>
       </c>
       <c r="B103">
-        <f t="shared" ref="B103:B110" si="10">B102+4</f>
+        <f t="shared" ref="B103:B110" si="12">B102+4</f>
         <v>1984</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>14</v>
       </c>
       <c r="B104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1988</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>14</v>
       </c>
       <c r="B105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1992</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>14</v>
       </c>
       <c r="B106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1996</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>14</v>
       </c>
       <c r="B107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2000</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -2006,32 +2433,44 @@
       <c r="C108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>14</v>
       </c>
       <c r="B109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2008</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>14</v>
       </c>
       <c r="B110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2012</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -2041,8 +2480,12 @@
       <c r="C111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -2053,68 +2496,92 @@
       <c r="C112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>15</v>
       </c>
       <c r="B113">
-        <f t="shared" ref="B113:B120" si="11">B112+4</f>
+        <f t="shared" ref="B113:B120" si="13">B112+4</f>
         <v>1984</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>15</v>
       </c>
       <c r="B114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1988</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>15</v>
       </c>
       <c r="B115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1992</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>15</v>
       </c>
       <c r="B116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1996</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>15</v>
       </c>
       <c r="B117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2000</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -2125,32 +2592,44 @@
       <c r="C118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>15</v>
       </c>
       <c r="B119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2008</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>15</v>
       </c>
       <c r="B120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2012</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -2160,8 +2639,12 @@
       <c r="C121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -2172,68 +2655,92 @@
       <c r="C122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>17</v>
       </c>
       <c r="B123">
-        <f t="shared" ref="B123:B130" si="12">B122+4</f>
+        <f t="shared" ref="B123:B130" si="14">B122+4</f>
         <v>1984</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>17</v>
       </c>
       <c r="B124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1988</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>17</v>
       </c>
       <c r="B125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1992</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>17</v>
       </c>
       <c r="B126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1996</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>17</v>
       </c>
       <c r="B127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2000</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -2244,32 +2751,44 @@
       <c r="C128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>17</v>
       </c>
       <c r="B129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2008</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>17</v>
       </c>
       <c r="B130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2012</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -2279,8 +2798,12 @@
       <c r="C131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131">
+        <f t="shared" ref="D131:D194" si="15">C130</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -2290,8 +2813,12 @@
       <c r="C132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -2301,8 +2828,12 @@
       <c r="C133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -2312,8 +2843,12 @@
       <c r="C134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -2323,8 +2858,12 @@
       <c r="C135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>18</v>
       </c>
@@ -2334,8 +2873,12 @@
       <c r="C136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>18</v>
       </c>
@@ -2345,8 +2888,12 @@
       <c r="C137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>18</v>
       </c>
@@ -2356,8 +2903,12 @@
       <c r="C138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>18</v>
       </c>
@@ -2367,8 +2918,12 @@
       <c r="C139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>18</v>
       </c>
@@ -2378,8 +2933,12 @@
       <c r="C140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -2389,8 +2948,12 @@
       <c r="C141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -2400,8 +2963,12 @@
       <c r="C142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -2411,8 +2978,12 @@
       <c r="C143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -2422,8 +2993,12 @@
       <c r="C144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -2433,8 +3008,12 @@
       <c r="C145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -2444,8 +3023,12 @@
       <c r="C146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -2455,8 +3038,12 @@
       <c r="C147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -2466,8 +3053,12 @@
       <c r="C148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -2477,8 +3068,12 @@
       <c r="C149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -2488,8 +3083,12 @@
       <c r="C150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -2499,8 +3098,12 @@
       <c r="C151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -2510,8 +3113,12 @@
       <c r="C152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>20</v>
       </c>
@@ -2521,8 +3128,12 @@
       <c r="C153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -2532,8 +3143,12 @@
       <c r="C154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -2543,8 +3158,12 @@
       <c r="C155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -2554,8 +3173,12 @@
       <c r="C156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -2565,8 +3188,12 @@
       <c r="C157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>20</v>
       </c>
@@ -2576,8 +3203,12 @@
       <c r="C158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>20</v>
       </c>
@@ -2587,8 +3218,12 @@
       <c r="C159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -2598,8 +3233,12 @@
       <c r="C160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -2609,8 +3248,12 @@
       <c r="C161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -2620,8 +3263,12 @@
       <c r="C162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -2631,8 +3278,12 @@
       <c r="C163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>21</v>
       </c>
@@ -2642,8 +3293,12 @@
       <c r="C164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>21</v>
       </c>
@@ -2653,8 +3308,12 @@
       <c r="C165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -2664,8 +3323,12 @@
       <c r="C166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -2675,8 +3338,12 @@
       <c r="C167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>21</v>
       </c>
@@ -2686,8 +3353,12 @@
       <c r="C168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -2697,8 +3368,12 @@
       <c r="C169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -2708,8 +3383,12 @@
       <c r="C170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>22</v>
       </c>
@@ -2719,8 +3398,12 @@
       <c r="C171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>22</v>
       </c>
@@ -2730,8 +3413,12 @@
       <c r="C172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>22</v>
       </c>
@@ -2741,8 +3428,12 @@
       <c r="C173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -2752,8 +3443,12 @@
       <c r="C174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>22</v>
       </c>
@@ -2763,8 +3458,12 @@
       <c r="C175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>22</v>
       </c>
@@ -2774,8 +3473,12 @@
       <c r="C176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>22</v>
       </c>
@@ -2785,8 +3488,12 @@
       <c r="C177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>22</v>
       </c>
@@ -2796,8 +3503,12 @@
       <c r="C178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>22</v>
       </c>
@@ -2807,8 +3518,12 @@
       <c r="C179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>22</v>
       </c>
@@ -2818,8 +3533,12 @@
       <c r="C180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>23</v>
       </c>
@@ -2829,8 +3548,12 @@
       <c r="C181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>23</v>
       </c>
@@ -2840,8 +3563,12 @@
       <c r="C182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>23</v>
       </c>
@@ -2851,8 +3578,12 @@
       <c r="C183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -2862,8 +3593,12 @@
       <c r="C184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>23</v>
       </c>
@@ -2873,8 +3608,12 @@
       <c r="C185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -2884,8 +3623,12 @@
       <c r="C186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>23</v>
       </c>
@@ -2895,8 +3638,12 @@
       <c r="C187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>23</v>
       </c>
@@ -2906,8 +3653,12 @@
       <c r="C188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>23</v>
       </c>
@@ -2917,8 +3668,12 @@
       <c r="C189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>23</v>
       </c>
@@ -2928,8 +3683,12 @@
       <c r="C190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>24</v>
       </c>
@@ -2939,8 +3698,12 @@
       <c r="C191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>24</v>
       </c>
@@ -2950,8 +3713,12 @@
       <c r="C192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>24</v>
       </c>
@@ -2961,8 +3728,12 @@
       <c r="C193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>24</v>
       </c>
@@ -2972,8 +3743,12 @@
       <c r="C194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>24</v>
       </c>
@@ -2983,8 +3758,12 @@
       <c r="C195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195">
+        <f t="shared" ref="D195:D258" si="16">C194</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>24</v>
       </c>
@@ -2994,8 +3773,12 @@
       <c r="C196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>24</v>
       </c>
@@ -3005,8 +3788,12 @@
       <c r="C197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>24</v>
       </c>
@@ -3016,8 +3803,12 @@
       <c r="C198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>24</v>
       </c>
@@ -3027,8 +3818,12 @@
       <c r="C199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>24</v>
       </c>
@@ -3038,8 +3833,12 @@
       <c r="C200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>25</v>
       </c>
@@ -3049,8 +3848,12 @@
       <c r="C201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>25</v>
       </c>
@@ -3060,8 +3863,12 @@
       <c r="C202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>25</v>
       </c>
@@ -3071,8 +3878,12 @@
       <c r="C203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>25</v>
       </c>
@@ -3082,8 +3893,12 @@
       <c r="C204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>25</v>
       </c>
@@ -3093,8 +3908,12 @@
       <c r="C205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="D205">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>25</v>
       </c>
@@ -3104,8 +3923,12 @@
       <c r="C206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="D206">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>25</v>
       </c>
@@ -3115,8 +3938,12 @@
       <c r="C207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="D207">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>25</v>
       </c>
@@ -3126,8 +3953,12 @@
       <c r="C208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="D208">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>25</v>
       </c>
@@ -3137,8 +3968,12 @@
       <c r="C209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="D209">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>25</v>
       </c>
@@ -3148,8 +3983,12 @@
       <c r="C210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="D210">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>26</v>
       </c>
@@ -3159,8 +3998,12 @@
       <c r="C211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="D211">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>26</v>
       </c>
@@ -3170,8 +4013,12 @@
       <c r="C212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="D212">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>26</v>
       </c>
@@ -3181,8 +4028,12 @@
       <c r="C213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="D213">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>26</v>
       </c>
@@ -3192,8 +4043,12 @@
       <c r="C214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="D214">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -3203,8 +4058,12 @@
       <c r="C215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="D215">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>26</v>
       </c>
@@ -3214,8 +4073,12 @@
       <c r="C216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="D216">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -3225,8 +4088,12 @@
       <c r="C217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="D217">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>26</v>
       </c>
@@ -3236,8 +4103,12 @@
       <c r="C218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="D218">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>26</v>
       </c>
@@ -3247,8 +4118,12 @@
       <c r="C219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="D219">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>26</v>
       </c>
@@ -3258,8 +4133,12 @@
       <c r="C220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="D220">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>27</v>
       </c>
@@ -3269,8 +4148,12 @@
       <c r="C221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="D221">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -3280,8 +4163,12 @@
       <c r="C222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="D222">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>27</v>
       </c>
@@ -3291,8 +4178,12 @@
       <c r="C223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="D223">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>27</v>
       </c>
@@ -3302,8 +4193,12 @@
       <c r="C224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="D224">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>27</v>
       </c>
@@ -3313,8 +4208,12 @@
       <c r="C225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="D225">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>27</v>
       </c>
@@ -3324,8 +4223,12 @@
       <c r="C226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="D226">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>27</v>
       </c>
@@ -3335,8 +4238,12 @@
       <c r="C227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="D227">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>27</v>
       </c>
@@ -3346,8 +4253,12 @@
       <c r="C228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="D228">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>27</v>
       </c>
@@ -3357,8 +4268,12 @@
       <c r="C229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="D229">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>27</v>
       </c>
@@ -3368,8 +4283,12 @@
       <c r="C230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="D230">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>28</v>
       </c>
@@ -3379,8 +4298,12 @@
       <c r="C231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="D231">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>28</v>
       </c>
@@ -3390,8 +4313,12 @@
       <c r="C232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="D232">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>28</v>
       </c>
@@ -3401,8 +4328,12 @@
       <c r="C233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="D233">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>28</v>
       </c>
@@ -3412,8 +4343,12 @@
       <c r="C234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="D234">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>28</v>
       </c>
@@ -3423,8 +4358,12 @@
       <c r="C235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="D235">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>28</v>
       </c>
@@ -3434,8 +4373,12 @@
       <c r="C236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="D236">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>28</v>
       </c>
@@ -3445,8 +4388,12 @@
       <c r="C237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="D237">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>28</v>
       </c>
@@ -3456,8 +4403,12 @@
       <c r="C238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="D238">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>28</v>
       </c>
@@ -3467,8 +4418,12 @@
       <c r="C239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="D239">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>28</v>
       </c>
@@ -3478,8 +4433,12 @@
       <c r="C240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:3">
+      <c r="D240">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>29</v>
       </c>
@@ -3489,8 +4448,12 @@
       <c r="C241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="D241">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>29</v>
       </c>
@@ -3500,8 +4463,12 @@
       <c r="C242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:3">
+      <c r="D242">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>29</v>
       </c>
@@ -3511,8 +4478,12 @@
       <c r="C243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="D243">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>29</v>
       </c>
@@ -3522,8 +4493,12 @@
       <c r="C244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:3">
+      <c r="D244">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>29</v>
       </c>
@@ -3533,8 +4508,12 @@
       <c r="C245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:3">
+      <c r="D245">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>29</v>
       </c>
@@ -3544,8 +4523,12 @@
       <c r="C246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="D246">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>29</v>
       </c>
@@ -3555,8 +4538,12 @@
       <c r="C247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:3">
+      <c r="D247">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>29</v>
       </c>
@@ -3566,8 +4553,12 @@
       <c r="C248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
+      <c r="D248">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>29</v>
       </c>
@@ -3577,8 +4568,12 @@
       <c r="C249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="D249">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>29</v>
       </c>
@@ -3588,8 +4583,12 @@
       <c r="C250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:3">
+      <c r="D250">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>30</v>
       </c>
@@ -3599,8 +4598,12 @@
       <c r="C251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:3">
+      <c r="D251">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>30</v>
       </c>
@@ -3610,8 +4613,12 @@
       <c r="C252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="D252">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>30</v>
       </c>
@@ -3621,8 +4628,12 @@
       <c r="C253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:3">
+      <c r="D253">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>30</v>
       </c>
@@ -3632,8 +4643,12 @@
       <c r="C254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:3">
+      <c r="D254">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>30</v>
       </c>
@@ -3643,8 +4658,12 @@
       <c r="C255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:3">
+      <c r="D255">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>30</v>
       </c>
@@ -3654,8 +4673,12 @@
       <c r="C256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:3">
+      <c r="D256">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>30</v>
       </c>
@@ -3665,8 +4688,12 @@
       <c r="C257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:3">
+      <c r="D257">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>30</v>
       </c>
@@ -3676,8 +4703,12 @@
       <c r="C258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:3">
+      <c r="D258">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>30</v>
       </c>
@@ -3687,8 +4718,12 @@
       <c r="C259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:3">
+      <c r="D259">
+        <f t="shared" ref="D259:D322" si="17">C258</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>30</v>
       </c>
@@ -3698,8 +4733,12 @@
       <c r="C260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:3">
+      <c r="D260">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>31</v>
       </c>
@@ -3709,8 +4748,12 @@
       <c r="C261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:3">
+      <c r="D261">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>31</v>
       </c>
@@ -3720,8 +4763,12 @@
       <c r="C262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:3">
+      <c r="D262">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>31</v>
       </c>
@@ -3731,8 +4778,12 @@
       <c r="C263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:3">
+      <c r="D263">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>31</v>
       </c>
@@ -3742,8 +4793,12 @@
       <c r="C264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:3">
+      <c r="D264">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>31</v>
       </c>
@@ -3753,8 +4808,12 @@
       <c r="C265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:3">
+      <c r="D265">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>31</v>
       </c>
@@ -3764,8 +4823,12 @@
       <c r="C266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:3">
+      <c r="D266">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>31</v>
       </c>
@@ -3775,8 +4838,12 @@
       <c r="C267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:3">
+      <c r="D267">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>31</v>
       </c>
@@ -3786,8 +4853,12 @@
       <c r="C268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:3">
+      <c r="D268">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>31</v>
       </c>
@@ -3797,8 +4868,12 @@
       <c r="C269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:3">
+      <c r="D269">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>31</v>
       </c>
@@ -3808,8 +4883,12 @@
       <c r="C270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:3">
+      <c r="D270">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>32</v>
       </c>
@@ -3819,8 +4898,12 @@
       <c r="C271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:3">
+      <c r="D271">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>32</v>
       </c>
@@ -3830,8 +4913,12 @@
       <c r="C272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:3">
+      <c r="D272">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>32</v>
       </c>
@@ -3841,8 +4928,12 @@
       <c r="C273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:3">
+      <c r="D273">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>32</v>
       </c>
@@ -3852,8 +4943,12 @@
       <c r="C274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:3">
+      <c r="D274">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>32</v>
       </c>
@@ -3863,8 +4958,12 @@
       <c r="C275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:3">
+      <c r="D275">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>32</v>
       </c>
@@ -3874,8 +4973,12 @@
       <c r="C276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:3">
+      <c r="D276">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>32</v>
       </c>
@@ -3885,8 +4988,12 @@
       <c r="C277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:3">
+      <c r="D277">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>32</v>
       </c>
@@ -3896,8 +5003,12 @@
       <c r="C278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:3">
+      <c r="D278">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>32</v>
       </c>
@@ -3907,8 +5018,12 @@
       <c r="C279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:3">
+      <c r="D279">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>32</v>
       </c>
@@ -3918,8 +5033,12 @@
       <c r="C280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:3">
+      <c r="D280">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>33</v>
       </c>
@@ -3929,8 +5048,12 @@
       <c r="C281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:3">
+      <c r="D281">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>33</v>
       </c>
@@ -3940,8 +5063,12 @@
       <c r="C282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:3">
+      <c r="D282">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>33</v>
       </c>
@@ -3951,8 +5078,12 @@
       <c r="C283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:3">
+      <c r="D283">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>33</v>
       </c>
@@ -3962,8 +5093,12 @@
       <c r="C284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:3">
+      <c r="D284">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>33</v>
       </c>
@@ -3973,8 +5108,12 @@
       <c r="C285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:3">
+      <c r="D285">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>33</v>
       </c>
@@ -3984,8 +5123,12 @@
       <c r="C286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:3">
+      <c r="D286">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>33</v>
       </c>
@@ -3995,8 +5138,12 @@
       <c r="C287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:3">
+      <c r="D287">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>33</v>
       </c>
@@ -4006,8 +5153,12 @@
       <c r="C288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:3">
+      <c r="D288">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>33</v>
       </c>
@@ -4017,8 +5168,12 @@
       <c r="C289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:3">
+      <c r="D289">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>33</v>
       </c>
@@ -4028,8 +5183,12 @@
       <c r="C290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:3">
+      <c r="D290">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>34</v>
       </c>
@@ -4039,8 +5198,12 @@
       <c r="C291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:3">
+      <c r="D291">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>34</v>
       </c>
@@ -4050,8 +5213,12 @@
       <c r="C292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:3">
+      <c r="D292">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>34</v>
       </c>
@@ -4061,8 +5228,12 @@
       <c r="C293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:3">
+      <c r="D293">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>34</v>
       </c>
@@ -4072,8 +5243,12 @@
       <c r="C294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:3">
+      <c r="D294">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>34</v>
       </c>
@@ -4083,8 +5258,12 @@
       <c r="C295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:3">
+      <c r="D295">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>34</v>
       </c>
@@ -4094,8 +5273,12 @@
       <c r="C296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:3">
+      <c r="D296">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>34</v>
       </c>
@@ -4105,8 +5288,12 @@
       <c r="C297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:3">
+      <c r="D297">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>34</v>
       </c>
@@ -4116,8 +5303,12 @@
       <c r="C298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:3">
+      <c r="D298">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>34</v>
       </c>
@@ -4127,8 +5318,12 @@
       <c r="C299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:3">
+      <c r="D299">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>34</v>
       </c>
@@ -4138,8 +5333,12 @@
       <c r="C300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:3">
+      <c r="D300">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>35</v>
       </c>
@@ -4149,8 +5348,12 @@
       <c r="C301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:3">
+      <c r="D301">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>35</v>
       </c>
@@ -4160,8 +5363,12 @@
       <c r="C302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:3">
+      <c r="D302">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>35</v>
       </c>
@@ -4171,8 +5378,12 @@
       <c r="C303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:3">
+      <c r="D303">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>35</v>
       </c>
@@ -4182,8 +5393,12 @@
       <c r="C304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:3">
+      <c r="D304">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>35</v>
       </c>
@@ -4193,8 +5408,12 @@
       <c r="C305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:3">
+      <c r="D305">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>35</v>
       </c>
@@ -4204,8 +5423,12 @@
       <c r="C306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:3">
+      <c r="D306">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>35</v>
       </c>
@@ -4215,8 +5438,12 @@
       <c r="C307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:3">
+      <c r="D307">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>35</v>
       </c>
@@ -4226,8 +5453,12 @@
       <c r="C308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:3">
+      <c r="D308">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>35</v>
       </c>
@@ -4237,8 +5468,12 @@
       <c r="C309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:3">
+      <c r="D309">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>35</v>
       </c>
@@ -4248,8 +5483,12 @@
       <c r="C310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:3">
+      <c r="D310">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>36</v>
       </c>
@@ -4259,8 +5498,12 @@
       <c r="C311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:3">
+      <c r="D311">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>36</v>
       </c>
@@ -4270,8 +5513,12 @@
       <c r="C312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:3">
+      <c r="D312">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>36</v>
       </c>
@@ -4281,8 +5528,12 @@
       <c r="C313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:3">
+      <c r="D313">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>36</v>
       </c>
@@ -4292,8 +5543,12 @@
       <c r="C314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:3">
+      <c r="D314">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>36</v>
       </c>
@@ -4303,8 +5558,12 @@
       <c r="C315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:3">
+      <c r="D315">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>36</v>
       </c>
@@ -4314,8 +5573,12 @@
       <c r="C316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:3">
+      <c r="D316">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>36</v>
       </c>
@@ -4325,8 +5588,12 @@
       <c r="C317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:3">
+      <c r="D317">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>36</v>
       </c>
@@ -4336,8 +5603,12 @@
       <c r="C318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:3">
+      <c r="D318">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>36</v>
       </c>
@@ -4347,8 +5618,12 @@
       <c r="C319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:3">
+      <c r="D319">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>36</v>
       </c>
@@ -4358,8 +5633,12 @@
       <c r="C320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:3">
+      <c r="D320">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>37</v>
       </c>
@@ -4369,8 +5648,12 @@
       <c r="C321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:3">
+      <c r="D321">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>37</v>
       </c>
@@ -4380,8 +5663,12 @@
       <c r="C322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:3">
+      <c r="D322">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>37</v>
       </c>
@@ -4391,8 +5678,12 @@
       <c r="C323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:3">
+      <c r="D323">
+        <f t="shared" ref="D323:D370" si="18">C322</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>37</v>
       </c>
@@ -4402,8 +5693,12 @@
       <c r="C324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:3">
+      <c r="D324">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>37</v>
       </c>
@@ -4413,8 +5708,12 @@
       <c r="C325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:3">
+      <c r="D325">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>37</v>
       </c>
@@ -4424,8 +5723,12 @@
       <c r="C326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:3">
+      <c r="D326">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>37</v>
       </c>
@@ -4435,8 +5738,12 @@
       <c r="C327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:3">
+      <c r="D327">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>37</v>
       </c>
@@ -4446,8 +5753,12 @@
       <c r="C328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:3">
+      <c r="D328">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>37</v>
       </c>
@@ -4457,8 +5768,12 @@
       <c r="C329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:3">
+      <c r="D329">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>37</v>
       </c>
@@ -4468,8 +5783,12 @@
       <c r="C330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:3">
+      <c r="D330">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>38</v>
       </c>
@@ -4479,8 +5798,12 @@
       <c r="C331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:3">
+      <c r="D331">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>38</v>
       </c>
@@ -4490,8 +5813,12 @@
       <c r="C332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:3">
+      <c r="D332">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>38</v>
       </c>
@@ -4501,8 +5828,12 @@
       <c r="C333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:3">
+      <c r="D333">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>38</v>
       </c>
@@ -4512,8 +5843,12 @@
       <c r="C334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:3">
+      <c r="D334">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>38</v>
       </c>
@@ -4523,8 +5858,12 @@
       <c r="C335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:3">
+      <c r="D335">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>38</v>
       </c>
@@ -4534,8 +5873,12 @@
       <c r="C336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:3">
+      <c r="D336">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>38</v>
       </c>
@@ -4545,8 +5888,12 @@
       <c r="C337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:3">
+      <c r="D337">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>38</v>
       </c>
@@ -4556,8 +5903,12 @@
       <c r="C338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:3">
+      <c r="D338">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>38</v>
       </c>
@@ -4567,8 +5918,12 @@
       <c r="C339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:3">
+      <c r="D339">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>38</v>
       </c>
@@ -4578,8 +5933,12 @@
       <c r="C340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:3">
+      <c r="D340">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>39</v>
       </c>
@@ -4589,8 +5948,12 @@
       <c r="C341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:3">
+      <c r="D341">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>39</v>
       </c>
@@ -4600,8 +5963,12 @@
       <c r="C342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:3">
+      <c r="D342">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>39</v>
       </c>
@@ -4611,8 +5978,12 @@
       <c r="C343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:3">
+      <c r="D343">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>39</v>
       </c>
@@ -4622,8 +5993,12 @@
       <c r="C344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:3">
+      <c r="D344">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>39</v>
       </c>
@@ -4633,8 +6008,12 @@
       <c r="C345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:3">
+      <c r="D345">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>39</v>
       </c>
@@ -4644,8 +6023,12 @@
       <c r="C346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:3">
+      <c r="D346">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>39</v>
       </c>
@@ -4655,8 +6038,12 @@
       <c r="C347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:3">
+      <c r="D347">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>39</v>
       </c>
@@ -4666,8 +6053,12 @@
       <c r="C348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:3">
+      <c r="D348">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>39</v>
       </c>
@@ -4677,8 +6068,12 @@
       <c r="C349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:3">
+      <c r="D349">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>39</v>
       </c>
@@ -4688,8 +6083,12 @@
       <c r="C350">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:3">
+      <c r="D350">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>40</v>
       </c>
@@ -4699,8 +6098,12 @@
       <c r="C351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:3">
+      <c r="D351">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>40</v>
       </c>
@@ -4710,8 +6113,12 @@
       <c r="C352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:3">
+      <c r="D352">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>40</v>
       </c>
@@ -4721,8 +6128,12 @@
       <c r="C353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:3">
+      <c r="D353">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>40</v>
       </c>
@@ -4732,8 +6143,12 @@
       <c r="C354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:3">
+      <c r="D354">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>40</v>
       </c>
@@ -4743,8 +6158,12 @@
       <c r="C355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:3">
+      <c r="D355">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>40</v>
       </c>
@@ -4754,8 +6173,12 @@
       <c r="C356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:3">
+      <c r="D356">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>40</v>
       </c>
@@ -4765,8 +6188,12 @@
       <c r="C357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:3">
+      <c r="D357">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>40</v>
       </c>
@@ -4776,8 +6203,12 @@
       <c r="C358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:3">
+      <c r="D358">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>40</v>
       </c>
@@ -4787,8 +6218,12 @@
       <c r="C359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:3">
+      <c r="D359">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>40</v>
       </c>
@@ -4798,8 +6233,12 @@
       <c r="C360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:3">
+      <c r="D360">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>41</v>
       </c>
@@ -4809,8 +6248,12 @@
       <c r="C361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:3">
+      <c r="D361">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>41</v>
       </c>
@@ -4820,8 +6263,12 @@
       <c r="C362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:3">
+      <c r="D362">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>41</v>
       </c>
@@ -4831,8 +6278,12 @@
       <c r="C363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:3">
+      <c r="D363">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>41</v>
       </c>
@@ -4842,8 +6293,12 @@
       <c r="C364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:3">
+      <c r="D364">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>41</v>
       </c>
@@ -4853,8 +6308,12 @@
       <c r="C365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:3">
+      <c r="D365">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>41</v>
       </c>
@@ -4864,8 +6323,12 @@
       <c r="C366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:3">
+      <c r="D366">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>41</v>
       </c>
@@ -4875,8 +6338,12 @@
       <c r="C367">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:3">
+      <c r="D367">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>41</v>
       </c>
@@ -4886,8 +6353,12 @@
       <c r="C368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:3">
+      <c r="D368">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>41</v>
       </c>
@@ -4897,8 +6368,12 @@
       <c r="C369">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:3">
+      <c r="D369">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>41</v>
       </c>
@@ -4908,8 +6383,12 @@
       <c r="C370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:3">
+      <c r="D370">
+        <f>C369</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>42</v>
       </c>
@@ -4919,8 +6398,12 @@
       <c r="C371">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:3">
+      <c r="D371">
+        <f t="shared" ref="D371:D434" si="19">C370</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>42</v>
       </c>
@@ -4930,8 +6413,12 @@
       <c r="C372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:3">
+      <c r="D372">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>42</v>
       </c>
@@ -4941,8 +6428,12 @@
       <c r="C373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:3">
+      <c r="D373">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>42</v>
       </c>
@@ -4952,8 +6443,12 @@
       <c r="C374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:3">
+      <c r="D374">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>42</v>
       </c>
@@ -4963,8 +6458,12 @@
       <c r="C375">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:3">
+      <c r="D375">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>42</v>
       </c>
@@ -4974,8 +6473,12 @@
       <c r="C376">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:3">
+      <c r="D376">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>42</v>
       </c>
@@ -4985,8 +6488,12 @@
       <c r="C377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:3">
+      <c r="D377">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>42</v>
       </c>
@@ -4996,8 +6503,12 @@
       <c r="C378">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:3">
+      <c r="D378">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>42</v>
       </c>
@@ -5007,8 +6518,12 @@
       <c r="C379">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:3">
+      <c r="D379">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>42</v>
       </c>
@@ -5018,8 +6533,12 @@
       <c r="C380">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:3">
+      <c r="D380">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>43</v>
       </c>
@@ -5029,8 +6548,12 @@
       <c r="C381">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:3">
+      <c r="D381">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>43</v>
       </c>
@@ -5040,8 +6563,12 @@
       <c r="C382">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:3">
+      <c r="D382">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>43</v>
       </c>
@@ -5051,8 +6578,12 @@
       <c r="C383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:3">
+      <c r="D383">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>43</v>
       </c>
@@ -5062,8 +6593,12 @@
       <c r="C384">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:3">
+      <c r="D384">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>43</v>
       </c>
@@ -5073,8 +6608,12 @@
       <c r="C385">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:3">
+      <c r="D385">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>43</v>
       </c>
@@ -5084,8 +6623,12 @@
       <c r="C386">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:3">
+      <c r="D386">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>43</v>
       </c>
@@ -5095,8 +6638,12 @@
       <c r="C387">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:3">
+      <c r="D387">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>43</v>
       </c>
@@ -5106,8 +6653,12 @@
       <c r="C388">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:3">
+      <c r="D388">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>43</v>
       </c>
@@ -5117,8 +6668,12 @@
       <c r="C389">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:3">
+      <c r="D389">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>43</v>
       </c>
@@ -5128,8 +6683,12 @@
       <c r="C390">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:3">
+      <c r="D390">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>44</v>
       </c>
@@ -5139,8 +6698,12 @@
       <c r="C391">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:3">
+      <c r="D391">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>44</v>
       </c>
@@ -5150,8 +6713,12 @@
       <c r="C392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:3">
+      <c r="D392">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>44</v>
       </c>
@@ -5161,8 +6728,12 @@
       <c r="C393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:3">
+      <c r="D393">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>44</v>
       </c>
@@ -5172,8 +6743,12 @@
       <c r="C394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:3">
+      <c r="D394">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>44</v>
       </c>
@@ -5183,8 +6758,12 @@
       <c r="C395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:3">
+      <c r="D395">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>44</v>
       </c>
@@ -5194,8 +6773,12 @@
       <c r="C396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:3">
+      <c r="D396">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>44</v>
       </c>
@@ -5205,8 +6788,12 @@
       <c r="C397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:3">
+      <c r="D397">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>44</v>
       </c>
@@ -5216,8 +6803,12 @@
       <c r="C398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:3">
+      <c r="D398">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>44</v>
       </c>
@@ -5227,8 +6818,12 @@
       <c r="C399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:3">
+      <c r="D399">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>44</v>
       </c>
@@ -5238,8 +6833,12 @@
       <c r="C400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:3">
+      <c r="D400">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>45</v>
       </c>
@@ -5249,8 +6848,12 @@
       <c r="C401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:3">
+      <c r="D401">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>45</v>
       </c>
@@ -5260,8 +6863,12 @@
       <c r="C402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:3">
+      <c r="D402">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>45</v>
       </c>
@@ -5271,8 +6878,12 @@
       <c r="C403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:3">
+      <c r="D403">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>45</v>
       </c>
@@ -5282,8 +6893,12 @@
       <c r="C404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:3">
+      <c r="D404">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>45</v>
       </c>
@@ -5293,8 +6908,12 @@
       <c r="C405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:3">
+      <c r="D405">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>45</v>
       </c>
@@ -5304,8 +6923,12 @@
       <c r="C406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:3">
+      <c r="D406">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>45</v>
       </c>
@@ -5315,8 +6938,12 @@
       <c r="C407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:3">
+      <c r="D407">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>45</v>
       </c>
@@ -5326,8 +6953,12 @@
       <c r="C408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:3">
+      <c r="D408">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>45</v>
       </c>
@@ -5337,8 +6968,12 @@
       <c r="C409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:3">
+      <c r="D409">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>45</v>
       </c>
@@ -5348,8 +6983,12 @@
       <c r="C410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:3">
+      <c r="D410">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>46</v>
       </c>
@@ -5359,8 +6998,12 @@
       <c r="C411">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:3">
+      <c r="D411">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>46</v>
       </c>
@@ -5370,8 +7013,12 @@
       <c r="C412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:3">
+      <c r="D412">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>46</v>
       </c>
@@ -5381,8 +7028,12 @@
       <c r="C413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:3">
+      <c r="D413">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>46</v>
       </c>
@@ -5392,8 +7043,12 @@
       <c r="C414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:3">
+      <c r="D414">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>46</v>
       </c>
@@ -5403,8 +7058,12 @@
       <c r="C415">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:3">
+      <c r="D415">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>46</v>
       </c>
@@ -5414,8 +7073,12 @@
       <c r="C416">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:3">
+      <c r="D416">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>46</v>
       </c>
@@ -5425,8 +7088,12 @@
       <c r="C417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:3">
+      <c r="D417">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>46</v>
       </c>
@@ -5436,8 +7103,12 @@
       <c r="C418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:3">
+      <c r="D418">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
         <v>46</v>
       </c>
@@ -5447,8 +7118,12 @@
       <c r="C419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:3">
+      <c r="D419">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>46</v>
       </c>
@@ -5458,8 +7133,12 @@
       <c r="C420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:3">
+      <c r="D420">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>47</v>
       </c>
@@ -5469,8 +7148,12 @@
       <c r="C421">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:3">
+      <c r="D421">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
         <v>47</v>
       </c>
@@ -5480,8 +7163,12 @@
       <c r="C422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:3">
+      <c r="D422">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>47</v>
       </c>
@@ -5491,8 +7178,12 @@
       <c r="C423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:3">
+      <c r="D423">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
         <v>47</v>
       </c>
@@ -5502,8 +7193,12 @@
       <c r="C424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:3">
+      <c r="D424">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
       <c r="A425" t="s">
         <v>47</v>
       </c>
@@ -5513,8 +7208,12 @@
       <c r="C425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:3">
+      <c r="D425">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
       <c r="A426" t="s">
         <v>47</v>
       </c>
@@ -5524,8 +7223,12 @@
       <c r="C426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:3">
+      <c r="D426">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
       <c r="A427" t="s">
         <v>47</v>
       </c>
@@ -5535,8 +7238,12 @@
       <c r="C427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:3">
+      <c r="D427">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
       <c r="A428" t="s">
         <v>47</v>
       </c>
@@ -5546,8 +7253,12 @@
       <c r="C428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:3">
+      <c r="D428">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
       <c r="A429" t="s">
         <v>47</v>
       </c>
@@ -5557,8 +7268,12 @@
       <c r="C429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:3">
+      <c r="D429">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
       <c r="A430" t="s">
         <v>47</v>
       </c>
@@ -5568,8 +7283,12 @@
       <c r="C430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:3">
+      <c r="D430">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
       <c r="A431" t="s">
         <v>48</v>
       </c>
@@ -5579,8 +7298,12 @@
       <c r="C431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:3">
+      <c r="D431">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
       <c r="A432" t="s">
         <v>48</v>
       </c>
@@ -5590,8 +7313,12 @@
       <c r="C432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:3">
+      <c r="D432">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
       <c r="A433" t="s">
         <v>48</v>
       </c>
@@ -5601,8 +7328,12 @@
       <c r="C433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:3">
+      <c r="D433">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
       <c r="A434" t="s">
         <v>48</v>
       </c>
@@ -5612,8 +7343,12 @@
       <c r="C434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:3">
+      <c r="D434">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
       <c r="A435" t="s">
         <v>48</v>
       </c>
@@ -5623,8 +7358,12 @@
       <c r="C435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:3">
+      <c r="D435">
+        <f t="shared" ref="D435:D498" si="20">C434</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
       <c r="A436" t="s">
         <v>48</v>
       </c>
@@ -5634,8 +7373,12 @@
       <c r="C436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:3">
+      <c r="D436">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
       <c r="A437" t="s">
         <v>48</v>
       </c>
@@ -5645,8 +7388,12 @@
       <c r="C437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:3">
+      <c r="D437">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
       <c r="A438" t="s">
         <v>48</v>
       </c>
@@ -5656,8 +7403,12 @@
       <c r="C438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:3">
+      <c r="D438">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
       <c r="A439" t="s">
         <v>48</v>
       </c>
@@ -5667,8 +7418,12 @@
       <c r="C439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:3">
+      <c r="D439">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
       <c r="A440" t="s">
         <v>48</v>
       </c>
@@ -5678,8 +7433,12 @@
       <c r="C440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:3">
+      <c r="D440">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
       <c r="A441" t="s">
         <v>49</v>
       </c>
@@ -5689,8 +7448,12 @@
       <c r="C441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:3">
+      <c r="D441">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
       <c r="A442" t="s">
         <v>49</v>
       </c>
@@ -5700,8 +7463,12 @@
       <c r="C442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:3">
+      <c r="D442">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
       <c r="A443" t="s">
         <v>49</v>
       </c>
@@ -5711,8 +7478,12 @@
       <c r="C443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:3">
+      <c r="D443">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
       <c r="A444" t="s">
         <v>49</v>
       </c>
@@ -5722,8 +7493,12 @@
       <c r="C444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:3">
+      <c r="D444">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
       <c r="A445" t="s">
         <v>49</v>
       </c>
@@ -5733,8 +7508,12 @@
       <c r="C445">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:3">
+      <c r="D445">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
       <c r="A446" t="s">
         <v>49</v>
       </c>
@@ -5744,8 +7523,12 @@
       <c r="C446">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="1:3">
+      <c r="D446">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
       <c r="A447" t="s">
         <v>49</v>
       </c>
@@ -5755,8 +7538,12 @@
       <c r="C447">
         <v>1</v>
       </c>
-    </row>
-    <row r="448" spans="1:3">
+      <c r="D447">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
       <c r="A448" t="s">
         <v>49</v>
       </c>
@@ -5766,8 +7553,12 @@
       <c r="C448">
         <v>1</v>
       </c>
-    </row>
-    <row r="449" spans="1:3">
+      <c r="D448">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
       <c r="A449" t="s">
         <v>49</v>
       </c>
@@ -5777,8 +7568,12 @@
       <c r="C449">
         <v>1</v>
       </c>
-    </row>
-    <row r="450" spans="1:3">
+      <c r="D449">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
       <c r="A450" t="s">
         <v>49</v>
       </c>
@@ -5788,8 +7583,12 @@
       <c r="C450">
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="1:3">
+      <c r="D450">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
       <c r="A451" t="s">
         <v>50</v>
       </c>
@@ -5799,8 +7598,12 @@
       <c r="C451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:3">
+      <c r="D451">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
       <c r="A452" t="s">
         <v>50</v>
       </c>
@@ -5810,8 +7613,12 @@
       <c r="C452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:3">
+      <c r="D452">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
       <c r="A453" t="s">
         <v>50</v>
       </c>
@@ -5821,8 +7628,12 @@
       <c r="C453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:3">
+      <c r="D453">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
       <c r="A454" t="s">
         <v>50</v>
       </c>
@@ -5832,8 +7643,12 @@
       <c r="C454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:3">
+      <c r="D454">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
       <c r="A455" t="s">
         <v>50</v>
       </c>
@@ -5843,8 +7658,12 @@
       <c r="C455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:3">
+      <c r="D455">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
       <c r="A456" t="s">
         <v>50</v>
       </c>
@@ -5854,8 +7673,12 @@
       <c r="C456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:3">
+      <c r="D456">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
       <c r="A457" t="s">
         <v>50</v>
       </c>
@@ -5865,8 +7688,12 @@
       <c r="C457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:3">
+      <c r="D457">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
       <c r="A458" t="s">
         <v>50</v>
       </c>
@@ -5876,8 +7703,12 @@
       <c r="C458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:3">
+      <c r="D458">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
       <c r="A459" t="s">
         <v>50</v>
       </c>
@@ -5887,8 +7718,12 @@
       <c r="C459">
         <v>1</v>
       </c>
-    </row>
-    <row r="460" spans="1:3">
+      <c r="D459">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
       <c r="A460" t="s">
         <v>50</v>
       </c>
@@ -5898,8 +7733,12 @@
       <c r="C460">
         <v>1</v>
       </c>
-    </row>
-    <row r="461" spans="1:3">
+      <c r="D460">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
       <c r="A461" t="s">
         <v>51</v>
       </c>
@@ -5909,8 +7748,12 @@
       <c r="C461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:3">
+      <c r="D461">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
       <c r="A462" t="s">
         <v>51</v>
       </c>
@@ -5920,8 +7763,12 @@
       <c r="C462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:3">
+      <c r="D462">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
       <c r="A463" t="s">
         <v>51</v>
       </c>
@@ -5931,8 +7778,12 @@
       <c r="C463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:3">
+      <c r="D463">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
       <c r="A464" t="s">
         <v>51</v>
       </c>
@@ -5942,8 +7793,12 @@
       <c r="C464">
         <v>1</v>
       </c>
-    </row>
-    <row r="465" spans="1:3">
+      <c r="D464">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
       <c r="A465" t="s">
         <v>51</v>
       </c>
@@ -5953,8 +7808,12 @@
       <c r="C465">
         <v>1</v>
       </c>
-    </row>
-    <row r="466" spans="1:3">
+      <c r="D465">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
       <c r="A466" t="s">
         <v>51</v>
       </c>
@@ -5964,8 +7823,12 @@
       <c r="C466">
         <v>1</v>
       </c>
-    </row>
-    <row r="467" spans="1:3">
+      <c r="D466">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
       <c r="A467" t="s">
         <v>51</v>
       </c>
@@ -5975,8 +7838,12 @@
       <c r="C467">
         <v>1</v>
       </c>
-    </row>
-    <row r="468" spans="1:3">
+      <c r="D467">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
       <c r="A468" t="s">
         <v>51</v>
       </c>
@@ -5986,8 +7853,12 @@
       <c r="C468">
         <v>1</v>
       </c>
-    </row>
-    <row r="469" spans="1:3">
+      <c r="D468">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
       <c r="A469" t="s">
         <v>51</v>
       </c>
@@ -5997,8 +7868,12 @@
       <c r="C469">
         <v>1</v>
       </c>
-    </row>
-    <row r="470" spans="1:3">
+      <c r="D469">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
       <c r="A470" t="s">
         <v>51</v>
       </c>
@@ -6008,8 +7883,12 @@
       <c r="C470">
         <v>1</v>
       </c>
-    </row>
-    <row r="471" spans="1:3">
+      <c r="D470">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
       <c r="A471" t="s">
         <v>54</v>
       </c>
@@ -6019,8 +7898,12 @@
       <c r="C471">
         <v>1</v>
       </c>
-    </row>
-    <row r="472" spans="1:3">
+      <c r="D471">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
       <c r="A472" t="s">
         <v>54</v>
       </c>
@@ -6030,8 +7913,12 @@
       <c r="C472">
         <v>1</v>
       </c>
-    </row>
-    <row r="473" spans="1:3">
+      <c r="D472">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
       <c r="A473" t="s">
         <v>54</v>
       </c>
@@ -6041,8 +7928,12 @@
       <c r="C473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:3">
+      <c r="D473">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
       <c r="A474" t="s">
         <v>54</v>
       </c>
@@ -6052,8 +7943,12 @@
       <c r="C474">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:3">
+      <c r="D474">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
       <c r="A475" t="s">
         <v>54</v>
       </c>
@@ -6063,8 +7958,12 @@
       <c r="C475">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:3">
+      <c r="D475">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
       <c r="A476" t="s">
         <v>54</v>
       </c>
@@ -6074,8 +7973,12 @@
       <c r="C476">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="1:3">
+      <c r="D476">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
       <c r="A477" t="s">
         <v>54</v>
       </c>
@@ -6085,8 +7988,12 @@
       <c r="C477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:3">
+      <c r="D477">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
       <c r="A478" t="s">
         <v>54</v>
       </c>
@@ -6096,8 +8003,12 @@
       <c r="C478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:3">
+      <c r="D478">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
       <c r="A479" t="s">
         <v>54</v>
       </c>
@@ -6107,8 +8018,12 @@
       <c r="C479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:3">
+      <c r="D479">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
       <c r="A480" t="s">
         <v>54</v>
       </c>
@@ -6118,8 +8033,12 @@
       <c r="C480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:3">
+      <c r="D480">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
       <c r="A481" t="s">
         <v>52</v>
       </c>
@@ -6129,8 +8048,12 @@
       <c r="C481">
         <v>1</v>
       </c>
-    </row>
-    <row r="482" spans="1:3">
+      <c r="D481">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
       <c r="A482" t="s">
         <v>52</v>
       </c>
@@ -6140,8 +8063,12 @@
       <c r="C482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:3">
+      <c r="D482">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
       <c r="A483" t="s">
         <v>52</v>
       </c>
@@ -6151,8 +8078,12 @@
       <c r="C483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:3">
+      <c r="D483">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
       <c r="A484" t="s">
         <v>52</v>
       </c>
@@ -6162,8 +8093,12 @@
       <c r="C484">
         <v>1</v>
       </c>
-    </row>
-    <row r="485" spans="1:3">
+      <c r="D484">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
       <c r="A485" t="s">
         <v>52</v>
       </c>
@@ -6173,8 +8108,12 @@
       <c r="C485">
         <v>1</v>
       </c>
-    </row>
-    <row r="486" spans="1:3">
+      <c r="D485">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
       <c r="A486" t="s">
         <v>52</v>
       </c>
@@ -6184,8 +8123,12 @@
       <c r="C486">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:3">
+      <c r="D486">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
       <c r="A487" t="s">
         <v>52</v>
       </c>
@@ -6195,8 +8138,12 @@
       <c r="C487">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:3">
+      <c r="D487">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
       <c r="A488" t="s">
         <v>52</v>
       </c>
@@ -6206,8 +8153,12 @@
       <c r="C488">
         <v>1</v>
       </c>
-    </row>
-    <row r="489" spans="1:3">
+      <c r="D488">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
       <c r="A489" t="s">
         <v>52</v>
       </c>
@@ -6217,8 +8168,12 @@
       <c r="C489">
         <v>1</v>
       </c>
-    </row>
-    <row r="490" spans="1:3">
+      <c r="D489">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
       <c r="A490" t="s">
         <v>52</v>
       </c>
@@ -6228,8 +8183,12 @@
       <c r="C490">
         <v>1</v>
       </c>
-    </row>
-    <row r="491" spans="1:3">
+      <c r="D490">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
       <c r="A491" t="s">
         <v>53</v>
       </c>
@@ -6239,8 +8198,12 @@
       <c r="C491">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:3">
+      <c r="D491">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
       <c r="A492" t="s">
         <v>53</v>
       </c>
@@ -6250,8 +8213,12 @@
       <c r="C492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:3">
+      <c r="D492">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
       <c r="A493" t="s">
         <v>53</v>
       </c>
@@ -6261,8 +8228,12 @@
       <c r="C493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:3">
+      <c r="D493">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
       <c r="A494" t="s">
         <v>53</v>
       </c>
@@ -6272,8 +8243,12 @@
       <c r="C494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:3">
+      <c r="D494">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
       <c r="A495" t="s">
         <v>53</v>
       </c>
@@ -6283,8 +8258,12 @@
       <c r="C495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:3">
+      <c r="D495">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
       <c r="A496" t="s">
         <v>53</v>
       </c>
@@ -6294,8 +8273,12 @@
       <c r="C496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:3">
+      <c r="D496">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
       <c r="A497" t="s">
         <v>53</v>
       </c>
@@ -6305,8 +8288,12 @@
       <c r="C497">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:3">
+      <c r="D497">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
       <c r="A498" t="s">
         <v>53</v>
       </c>
@@ -6316,8 +8303,12 @@
       <c r="C498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:3">
+      <c r="D498">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
       <c r="A499" t="s">
         <v>53</v>
       </c>
@@ -6327,8 +8318,12 @@
       <c r="C499">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:3">
+      <c r="D499">
+        <f t="shared" ref="D499:D500" si="21">C498</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
       <c r="A500" t="s">
         <v>53</v>
       </c>
@@ -6336,6 +8331,10 @@
         <v>2012</v>
       </c>
       <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
